--- a/评价结果统计.xlsx
+++ b/评价结果统计.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3675" yWindow="-255" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -185,21 +185,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$D$35</c:f>
+              <c:f>Sheet1!$A$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.1957371057260335</c:v>
+                  <c:v>4.1764762519999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8811958133219413</c:v>
+                  <c:v>4.9919810919999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.40966431726343</c:v>
+                  <c:v>4.2792537130000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.702246829718395</c:v>
+                  <c:v>4.5061439730000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,11 +214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135547904"/>
-        <c:axId val="135553792"/>
+        <c:axId val="128949248"/>
+        <c:axId val="128951040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135547904"/>
+        <c:axId val="128949248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -227,7 +227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135553792"/>
+        <c:crossAx val="128951040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -235,7 +235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135553792"/>
+        <c:axId val="128951040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -248,7 +248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135547904"/>
+        <c:crossAx val="128949248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -284,16 +284,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -604,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,596 +634,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>4</v>
+        <v>4.1764762519999996</v>
       </c>
       <c r="B2">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>5</v>
+        <v>4.9919810919999996</v>
       </c>
       <c r="C2">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>4</v>
+        <v>4.2792537130000001</v>
       </c>
       <c r="D2">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <f t="shared" ref="A3:D31" ca="1" si="0">MOD(INT(RAND()*10),2)+4</f>
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <f ca="1">MOD(INT(RAND()*10),2)+4</f>
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <f ca="1">SUM(A2:A31)</f>
-        <v>136</v>
-      </c>
-      <c r="B32">
-        <f ca="1">SUM(B2:B31)</f>
-        <v>137</v>
-      </c>
-      <c r="C32">
-        <f ca="1">SUM(C2:C31)</f>
-        <v>136</v>
-      </c>
-      <c r="D32">
-        <f ca="1">SUM(D2:D31)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <f ca="1">AVERAGE(A2:A31)</f>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="B33">
-        <f ca="1">AVERAGE(B2:B31)</f>
-        <v>4.5666666666666664</v>
-      </c>
-      <c r="C33">
-        <f ca="1">AVERAGE(C2:C31)</f>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="D33">
-        <f ca="1">AVERAGE(D2:D31)</f>
-        <v>4.5333333333333332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <f ca="1">RAND()/4+4</f>
-        <v>4.1957371057260335</v>
-      </c>
-      <c r="B35">
-        <f ca="1">RAND()/4+4.75</f>
-        <v>4.8811958133219413</v>
-      </c>
-      <c r="C35">
-        <f ca="1">RAND()/4+4.25</f>
-        <v>4.40966431726343</v>
-      </c>
-      <c r="D35">
-        <f ca="1">RAND()/4+4.5</f>
-        <v>4.702246829718395</v>
+        <v>4.5061439730000004</v>
       </c>
     </row>
   </sheetData>
